--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calca-Ramp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calca-Ramp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Calca</t>
   </si>
   <si>
     <t>Ramp1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,40 +543,40 @@
         <v>0.63636</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.006623</v>
+        <v>0.7451976666666668</v>
       </c>
       <c r="N2">
-        <v>0.019869</v>
+        <v>2.235593</v>
       </c>
       <c r="O2">
-        <v>0.000903488785864359</v>
+        <v>0.06145846259783393</v>
       </c>
       <c r="P2">
-        <v>0.0009529930163248197</v>
+        <v>0.06209960373184343</v>
       </c>
       <c r="Q2">
-        <v>0.00140487076</v>
+        <v>0.1580713290533333</v>
       </c>
       <c r="R2">
-        <v>0.01264383684</v>
+        <v>1.42264196148</v>
       </c>
       <c r="S2">
-        <v>0.000903488785864359</v>
+        <v>0.01257196580398342</v>
       </c>
       <c r="T2">
-        <v>0.0009529930163248197</v>
+        <v>0.01728660015143971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,40 +605,40 @@
         <v>0.63636</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7451976666666668</v>
+        <v>6.298285</v>
       </c>
       <c r="N3">
-        <v>2.235593</v>
+        <v>18.894855</v>
       </c>
       <c r="O3">
-        <v>0.1016575169991877</v>
+        <v>0.5194365608180895</v>
       </c>
       <c r="P3">
-        <v>0.107227566377002</v>
+        <v>0.5248553775533562</v>
       </c>
       <c r="Q3">
-        <v>0.1580713290533333</v>
+        <v>1.3359922142</v>
       </c>
       <c r="R3">
-        <v>1.42264196148</v>
+        <v>12.0239299278</v>
       </c>
       <c r="S3">
-        <v>0.1016575169991877</v>
+        <v>0.1062561346950116</v>
       </c>
       <c r="T3">
-        <v>0.107227566377002</v>
+        <v>0.1461034290697955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +667,40 @@
         <v>0.63636</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.928532</v>
+        <v>0.375557</v>
       </c>
       <c r="N4">
-        <v>11.785596</v>
+        <v>0.7511139999999999</v>
       </c>
       <c r="O4">
-        <v>0.5359179536326864</v>
+        <v>0.03097319928697403</v>
       </c>
       <c r="P4">
-        <v>0.5652821320260571</v>
+        <v>0.02086420996909538</v>
       </c>
       <c r="Q4">
-        <v>0.83332020784</v>
+        <v>0.07966315084</v>
       </c>
       <c r="R4">
-        <v>7.49988187056</v>
+        <v>0.47797890504</v>
       </c>
       <c r="S4">
-        <v>0.5359179536326864</v>
+        <v>0.006335889083719534</v>
       </c>
       <c r="T4">
-        <v>0.5652821320260571</v>
+        <v>0.005807947773207595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -732,72 +729,72 @@
         <v>0.63636</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2045603692733198</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2783689285053439</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1423675</v>
+        <v>4.706185000000001</v>
       </c>
       <c r="N5">
-        <v>2.284735</v>
+        <v>14.118555</v>
       </c>
       <c r="O5">
-        <v>0.1558381738767783</v>
+        <v>0.3881317772971025</v>
       </c>
       <c r="P5">
-        <v>0.1095846041145949</v>
+        <v>0.3921808087457049</v>
       </c>
       <c r="Q5">
-        <v>0.2423189941</v>
+        <v>0.9982759622000001</v>
       </c>
       <c r="R5">
-        <v>1.4539139646</v>
+        <v>8.9844836598</v>
       </c>
       <c r="S5">
-        <v>0.1558381738767783</v>
+        <v>0.0793963796906052</v>
       </c>
       <c r="T5">
-        <v>0.1095846041145949</v>
+        <v>0.1091709515109011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.21212</v>
+        <v>0.8248355000000001</v>
       </c>
       <c r="H6">
-        <v>0.63636</v>
+        <v>1.649671</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.7954396307266801</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.721631071494656</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +803,214 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.507752666666667</v>
+        <v>0.7451976666666668</v>
       </c>
       <c r="N6">
-        <v>4.523258</v>
+        <v>2.235593</v>
       </c>
       <c r="O6">
-        <v>0.2056828667054833</v>
+        <v>0.06145846259783393</v>
       </c>
       <c r="P6">
-        <v>0.216952704466021</v>
+        <v>0.06209960373184343</v>
       </c>
       <c r="Q6">
-        <v>0.3198244956533334</v>
+        <v>0.6146654899838334</v>
       </c>
       <c r="R6">
-        <v>2.87842046088</v>
+        <v>3.687992939903001</v>
       </c>
       <c r="S6">
-        <v>0.2056828667054833</v>
+        <v>0.0488864967938505</v>
       </c>
       <c r="T6">
-        <v>0.216952704466021</v>
+        <v>0.04481300358040372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.649671</v>
+      </c>
+      <c r="I7">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J7">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.298285</v>
+      </c>
+      <c r="N7">
+        <v>18.894855</v>
+      </c>
+      <c r="O7">
+        <v>0.5194365608180895</v>
+      </c>
+      <c r="P7">
+        <v>0.5248553775533562</v>
+      </c>
+      <c r="Q7">
+        <v>5.1950490571175</v>
+      </c>
+      <c r="R7">
+        <v>31.170294342705</v>
+      </c>
+      <c r="S7">
+        <v>0.4131804261230779</v>
+      </c>
+      <c r="T7">
+        <v>0.3787519484835606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.649671</v>
+      </c>
+      <c r="I8">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J8">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.375557</v>
+      </c>
+      <c r="N8">
+        <v>0.7511139999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.03097319928697403</v>
+      </c>
+      <c r="P8">
+        <v>0.02086420996909538</v>
+      </c>
+      <c r="Q8">
+        <v>0.3097727458735</v>
+      </c>
+      <c r="R8">
+        <v>1.239090983494</v>
+      </c>
+      <c r="S8">
+        <v>0.0246373102032545</v>
+      </c>
+      <c r="T8">
+        <v>0.01505626219588778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8248355000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.649671</v>
+      </c>
+      <c r="I9">
+        <v>0.7954396307266801</v>
+      </c>
+      <c r="J9">
+        <v>0.721631071494656</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.706185000000001</v>
+      </c>
+      <c r="N9">
+        <v>14.118555</v>
+      </c>
+      <c r="O9">
+        <v>0.3881317772971025</v>
+      </c>
+      <c r="P9">
+        <v>0.3921808087457049</v>
+      </c>
+      <c r="Q9">
+        <v>3.881828457567501</v>
+      </c>
+      <c r="R9">
+        <v>23.290970745405</v>
+      </c>
+      <c r="S9">
+        <v>0.3087353976064972</v>
+      </c>
+      <c r="T9">
+        <v>0.2830098572348038</v>
       </c>
     </row>
   </sheetData>
